--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sfrp1</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sfrp1</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1932423333333333</v>
+        <v>0.6599316666666667</v>
       </c>
       <c r="H2">
-        <v>0.579727</v>
+        <v>1.979795</v>
       </c>
       <c r="I2">
-        <v>0.001345733247764284</v>
+        <v>0.004637879740437423</v>
       </c>
       <c r="J2">
-        <v>0.001352641749279064</v>
+        <v>0.004642763851664535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.139245</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N2">
-        <v>0.417735</v>
+        <v>0.252773</v>
       </c>
       <c r="O2">
-        <v>0.01212793695325064</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P2">
-        <v>0.01283499108585158</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q2">
-        <v>0.02690802870499999</v>
+        <v>0.05560430239277778</v>
       </c>
       <c r="R2">
-        <v>0.242172258345</v>
+        <v>0.500438721535</v>
       </c>
       <c r="S2">
-        <v>1.632096798477847E-05</v>
+        <v>3.550204704915534E-05</v>
       </c>
       <c r="T2">
-        <v>1.736114479434747E-05</v>
+        <v>3.727095943055049E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1932423333333333</v>
+        <v>0.6599316666666667</v>
       </c>
       <c r="H3">
-        <v>0.579727</v>
+        <v>1.979795</v>
       </c>
       <c r="I3">
-        <v>0.001345733247764284</v>
+        <v>0.004637879740437423</v>
       </c>
       <c r="J3">
-        <v>0.001352641749279064</v>
+        <v>0.004642763851664535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>28.142075</v>
       </c>
       <c r="O3">
-        <v>0.8170378621222814</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P3">
-        <v>0.8646708601442703</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q3">
-        <v>1.812746745947222</v>
+        <v>6.190615486069445</v>
       </c>
       <c r="R3">
-        <v>16.314720713525</v>
+        <v>55.715539374625</v>
       </c>
       <c r="S3">
-        <v>0.001099515015740205</v>
+        <v>0.003952563251260452</v>
       </c>
       <c r="T3">
-        <v>0.001169589904816178</v>
+        <v>0.004149502263360839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.6599316666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.979795</v>
+      </c>
+      <c r="I4">
+        <v>0.004637879740437423</v>
+      </c>
+      <c r="J4">
+        <v>0.004642763851664535</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.1932423333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.579727</v>
-      </c>
-      <c r="I4">
-        <v>0.001345733247764284</v>
-      </c>
-      <c r="J4">
-        <v>0.001352641749279064</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006356333333333333</v>
+        <v>1.534105</v>
       </c>
       <c r="N4">
-        <v>0.019069</v>
+        <v>3.06821</v>
       </c>
       <c r="O4">
-        <v>0.0005536228225107701</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P4">
-        <v>0.0005858988234553099</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q4">
-        <v>0.001228312684777778</v>
+        <v>1.012404469491667</v>
       </c>
       <c r="R4">
-        <v>0.011054814163</v>
+        <v>6.07442681695</v>
       </c>
       <c r="S4">
-        <v>7.450286389738487E-07</v>
+        <v>0.0006463965837531435</v>
       </c>
       <c r="T4">
-        <v>7.925112094591356E-07</v>
+        <v>0.000452402473501558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +708,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1932423333333333</v>
+        <v>0.6599316666666667</v>
       </c>
       <c r="H5">
-        <v>0.579727</v>
+        <v>1.979795</v>
       </c>
       <c r="I5">
-        <v>0.001345733247764284</v>
+        <v>0.004637879740437423</v>
       </c>
       <c r="J5">
-        <v>0.001352641749279064</v>
+        <v>0.004642763851664535</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.897453</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N5">
-        <v>3.794906</v>
+        <v>0.024335</v>
       </c>
       <c r="O5">
-        <v>0.1652640335793479</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P5">
-        <v>0.1165992427774658</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q5">
-        <v>0.3666682451103333</v>
+        <v>0.005353145702777778</v>
       </c>
       <c r="R5">
-        <v>2.200009470662</v>
+        <v>0.048178311325</v>
       </c>
       <c r="S5">
-        <v>0.0002224013046473616</v>
+        <v>3.417858374672909E-06</v>
       </c>
       <c r="T5">
-        <v>0.0001577170037151256</v>
+        <v>3.588155371588129E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1932423333333333</v>
+        <v>141.1826756666667</v>
       </c>
       <c r="H6">
-        <v>0.579727</v>
+        <v>423.548027</v>
       </c>
       <c r="I6">
-        <v>0.001345733247764284</v>
+        <v>0.9922061695910651</v>
       </c>
       <c r="J6">
-        <v>0.001352641749279064</v>
+        <v>0.9932510533663508</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05759666666666666</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N6">
-        <v>0.17279</v>
+        <v>0.252773</v>
       </c>
       <c r="O6">
-        <v>0.005016544522609259</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P6">
-        <v>0.005309007168957103</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q6">
-        <v>0.01113011425888889</v>
+        <v>11.89572282543011</v>
       </c>
       <c r="R6">
-        <v>0.10017102833</v>
+        <v>107.061505428871</v>
       </c>
       <c r="S6">
-        <v>6.75093075296509E-06</v>
+        <v>0.007595140902028198</v>
       </c>
       <c r="T6">
-        <v>7.181184743953225E-06</v>
+        <v>0.007973573693845425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,13 +850,13 @@
         <v>141.1826756666667</v>
       </c>
       <c r="H7">
-        <v>423.5480269999999</v>
+        <v>423.548027</v>
       </c>
       <c r="I7">
-        <v>0.9831915055860169</v>
+        <v>0.9922061695910651</v>
       </c>
       <c r="J7">
-        <v>0.9882388506055022</v>
+        <v>0.9932510533663508</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.139245</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N7">
-        <v>0.417735</v>
+        <v>28.142075</v>
       </c>
       <c r="O7">
-        <v>0.01212793695325064</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P7">
-        <v>0.01283499108585158</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q7">
-        <v>19.65898167320499</v>
+        <v>1324.391149104003</v>
       </c>
       <c r="R7">
-        <v>176.930835058845</v>
+        <v>11919.52034193603</v>
       </c>
       <c r="S7">
-        <v>0.01192408459271879</v>
+        <v>0.8455927844368077</v>
       </c>
       <c r="T7">
-        <v>0.01268403683821384</v>
+        <v>0.8877249900512515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,43 +912,43 @@
         <v>141.1826756666667</v>
       </c>
       <c r="H8">
-        <v>423.5480269999999</v>
+        <v>423.548027</v>
       </c>
       <c r="I8">
-        <v>0.9831915055860169</v>
+        <v>0.9922061695910651</v>
       </c>
       <c r="J8">
-        <v>0.9882388506055022</v>
+        <v>0.9932510533663508</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.380691666666667</v>
+        <v>1.534105</v>
       </c>
       <c r="N8">
-        <v>28.142075</v>
+        <v>3.06821</v>
       </c>
       <c r="O8">
-        <v>0.8170378621222814</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P8">
-        <v>0.8646708601442703</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q8">
-        <v>1324.391149104003</v>
+        <v>216.5890486536117</v>
       </c>
       <c r="R8">
-        <v>11919.52034193602</v>
+        <v>1299.53429192167</v>
       </c>
       <c r="S8">
-        <v>0.8033046857807863</v>
+        <v>0.1382870437132047</v>
       </c>
       <c r="T8">
-        <v>0.8545013369810446</v>
+        <v>0.09678485654398797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,13 +974,13 @@
         <v>141.1826756666667</v>
       </c>
       <c r="H9">
-        <v>423.5480269999999</v>
+        <v>423.548027</v>
       </c>
       <c r="I9">
-        <v>0.9831915055860169</v>
+        <v>0.9922061695910651</v>
       </c>
       <c r="J9">
-        <v>0.9882388506055022</v>
+        <v>0.9932510533663508</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,152 +989,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.006356333333333333</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N9">
-        <v>0.019069</v>
+        <v>0.024335</v>
       </c>
       <c r="O9">
-        <v>0.0005536228225107701</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P9">
-        <v>0.0005858988234553099</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q9">
-        <v>0.897404147429222</v>
+        <v>1.145226804116111</v>
       </c>
       <c r="R9">
-        <v>8.076637326862999</v>
+        <v>10.307041237045</v>
       </c>
       <c r="S9">
-        <v>0.0005443172563911443</v>
+        <v>0.0007312005390245642</v>
       </c>
       <c r="T9">
-        <v>0.0005790079798625914</v>
+        <v>0.0007676330772658804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>141.1826756666667</v>
+        <v>0.4490655</v>
       </c>
       <c r="H10">
-        <v>423.5480269999999</v>
+        <v>0.898131</v>
       </c>
       <c r="I10">
-        <v>0.9831915055860169</v>
+        <v>0.0031559506684976</v>
       </c>
       <c r="J10">
-        <v>0.9882388506055022</v>
+        <v>0.00210618278198466</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.897453</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N10">
-        <v>3.794906</v>
+        <v>0.252773</v>
       </c>
       <c r="O10">
-        <v>0.1652640335793479</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P10">
-        <v>0.1165992427774658</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q10">
-        <v>267.8874914917437</v>
+        <v>0.0378372112105</v>
       </c>
       <c r="R10">
-        <v>1607.324948950462</v>
+        <v>0.227023267263</v>
       </c>
       <c r="S10">
-        <v>0.1624861939940971</v>
+        <v>2.415817472387666E-05</v>
       </c>
       <c r="T10">
-        <v>0.1152279016638748</v>
+        <v>1.69079142357263E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>141.1826756666667</v>
+        <v>0.4490655</v>
       </c>
       <c r="H11">
-        <v>423.5480269999999</v>
+        <v>0.898131</v>
       </c>
       <c r="I11">
-        <v>0.9831915055860169</v>
+        <v>0.0031559506684976</v>
       </c>
       <c r="J11">
-        <v>0.9882388506055022</v>
+        <v>0.00210618278198466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05759666666666666</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N11">
-        <v>0.17279</v>
+        <v>28.142075</v>
       </c>
       <c r="O11">
-        <v>0.005016544522609259</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P11">
-        <v>0.005309007168957103</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q11">
-        <v>8.131651509481109</v>
+        <v>4.212544993637501</v>
       </c>
       <c r="R11">
-        <v>73.18486358532999</v>
+        <v>25.275269961825</v>
       </c>
       <c r="S11">
-        <v>0.004932223962023484</v>
+        <v>0.00268961148913231</v>
       </c>
       <c r="T11">
-        <v>0.005246567142506538</v>
+        <v>0.001882415410330127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.2002175</v>
+        <v>0.4490655</v>
       </c>
       <c r="H12">
-        <v>4.400435</v>
+        <v>0.898131</v>
       </c>
       <c r="I12">
-        <v>0.01532224223848198</v>
+        <v>0.0031559506684976</v>
       </c>
       <c r="J12">
-        <v>0.01026726734478266</v>
+        <v>0.00210618278198466</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.139245</v>
+        <v>1.534105</v>
       </c>
       <c r="N12">
-        <v>0.417735</v>
+        <v>3.06821</v>
       </c>
       <c r="O12">
-        <v>0.01212793695325064</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P12">
-        <v>0.01283499108585158</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q12">
-        <v>0.3063692857874999</v>
+        <v>0.6889136288775001</v>
       </c>
       <c r="R12">
-        <v>1.838215714725</v>
+        <v>2.75565451551</v>
       </c>
       <c r="S12">
-        <v>0.0001858271878507435</v>
+        <v>0.0004398552452371037</v>
       </c>
       <c r="T12">
-        <v>0.0001317802848463405</v>
+        <v>0.00020523169617482</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,542 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.2002175</v>
+        <v>0.4490655</v>
       </c>
       <c r="H13">
-        <v>4.400435</v>
+        <v>0.898131</v>
       </c>
       <c r="I13">
-        <v>0.01532224223848198</v>
+        <v>0.0031559506684976</v>
       </c>
       <c r="J13">
-        <v>0.01026726734478266</v>
+        <v>0.00210618278198466</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>9.380691666666667</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N13">
-        <v>28.142075</v>
+        <v>0.024335</v>
       </c>
       <c r="O13">
-        <v>0.8170378621222814</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P13">
-        <v>0.8646708601442703</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q13">
-        <v>20.63956196710417</v>
+        <v>0.0036426696475</v>
       </c>
       <c r="R13">
-        <v>123.837371802625</v>
+        <v>0.021856017885</v>
       </c>
       <c r="S13">
-        <v>0.01251885204144904</v>
+        <v>2.325759404309553E-06</v>
       </c>
       <c r="T13">
-        <v>0.008877806886344401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.2002175</v>
-      </c>
-      <c r="H14">
-        <v>4.400435</v>
-      </c>
-      <c r="I14">
-        <v>0.01532224223848198</v>
-      </c>
-      <c r="J14">
-        <v>0.01026726734478266</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.006356333333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.019069</v>
-      </c>
-      <c r="O14">
-        <v>0.0005536228225107701</v>
-      </c>
-      <c r="P14">
-        <v>0.0005858988234553099</v>
-      </c>
-      <c r="Q14">
-        <v>0.01398531583583333</v>
-      </c>
-      <c r="R14">
-        <v>0.08391189501499999</v>
-      </c>
-      <c r="S14">
-        <v>8.482742995262135E-06</v>
-      </c>
-      <c r="T14">
-        <v>6.015579857409284E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.2002175</v>
-      </c>
-      <c r="H15">
-        <v>4.400435</v>
-      </c>
-      <c r="I15">
-        <v>0.01532224223848198</v>
-      </c>
-      <c r="J15">
-        <v>0.01026726734478266</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.897453</v>
-      </c>
-      <c r="N15">
-        <v>3.794906</v>
-      </c>
-      <c r="O15">
-        <v>0.1652640335793479</v>
-      </c>
-      <c r="P15">
-        <v>0.1165992427774658</v>
-      </c>
-      <c r="Q15">
-        <v>4.1748092960275</v>
-      </c>
-      <c r="R15">
-        <v>16.69923718411</v>
-      </c>
-      <c r="S15">
-        <v>0.002532215555811389</v>
-      </c>
-      <c r="T15">
-        <v>0.00119715559779546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.2002175</v>
-      </c>
-      <c r="H16">
-        <v>4.400435</v>
-      </c>
-      <c r="I16">
-        <v>0.01532224223848198</v>
-      </c>
-      <c r="J16">
-        <v>0.01026726734478266</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.17279</v>
-      </c>
-      <c r="O16">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P16">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q16">
-        <v>0.1267251939416666</v>
-      </c>
-      <c r="R16">
-        <v>0.76035116365</v>
-      </c>
-      <c r="S16">
-        <v>7.686471037554901E-05</v>
-      </c>
-      <c r="T16">
-        <v>5.450899593905029E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.020178</v>
-      </c>
-      <c r="H17">
-        <v>0.060534</v>
-      </c>
-      <c r="I17">
-        <v>0.0001405189277369576</v>
-      </c>
-      <c r="J17">
-        <v>0.0001412403004359963</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.139245</v>
-      </c>
-      <c r="N17">
-        <v>0.417735</v>
-      </c>
-      <c r="O17">
-        <v>0.01212793695325064</v>
-      </c>
-      <c r="P17">
-        <v>0.01283499108585158</v>
-      </c>
-      <c r="Q17">
-        <v>0.00280968561</v>
-      </c>
-      <c r="R17">
-        <v>0.02528717049</v>
-      </c>
-      <c r="S17">
-        <v>1.704204696332204E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.812817997059012E-06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.020178</v>
-      </c>
-      <c r="H18">
-        <v>0.060534</v>
-      </c>
-      <c r="I18">
-        <v>0.0001405189277369576</v>
-      </c>
-      <c r="J18">
-        <v>0.0001412403004359963</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>9.380691666666667</v>
-      </c>
-      <c r="N18">
-        <v>28.142075</v>
-      </c>
-      <c r="O18">
-        <v>0.8170378621222814</v>
-      </c>
-      <c r="P18">
-        <v>0.8646708601442703</v>
-      </c>
-      <c r="Q18">
-        <v>0.18928359645</v>
-      </c>
-      <c r="R18">
-        <v>1.70355236805</v>
-      </c>
-      <c r="S18">
-        <v>0.0001148092843059191</v>
-      </c>
-      <c r="T18">
-        <v>0.0001221263720650281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.020178</v>
-      </c>
-      <c r="H19">
-        <v>0.060534</v>
-      </c>
-      <c r="I19">
-        <v>0.0001405189277369576</v>
-      </c>
-      <c r="J19">
-        <v>0.0001412403004359963</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.006356333333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.019069</v>
-      </c>
-      <c r="O19">
-        <v>0.0005536228225107701</v>
-      </c>
-      <c r="P19">
-        <v>0.0005858988234553099</v>
-      </c>
-      <c r="Q19">
-        <v>0.000128258094</v>
-      </c>
-      <c r="R19">
-        <v>0.001154322846</v>
-      </c>
-      <c r="S19">
-        <v>7.779448538992139E-08</v>
-      </c>
-      <c r="T19">
-        <v>8.275252584992474E-08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.020178</v>
-      </c>
-      <c r="H20">
-        <v>0.060534</v>
-      </c>
-      <c r="I20">
-        <v>0.0001405189277369576</v>
-      </c>
-      <c r="J20">
-        <v>0.0001412403004359963</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.897453</v>
-      </c>
-      <c r="N20">
-        <v>3.794906</v>
-      </c>
-      <c r="O20">
-        <v>0.1652640335793479</v>
-      </c>
-      <c r="P20">
-        <v>0.1165992427774658</v>
-      </c>
-      <c r="Q20">
-        <v>0.038286806634</v>
-      </c>
-      <c r="R20">
-        <v>0.229720839804</v>
-      </c>
-      <c r="S20">
-        <v>2.322272479205451E-05</v>
-      </c>
-      <c r="T20">
-        <v>1.646851208049895E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.020178</v>
-      </c>
-      <c r="H21">
-        <v>0.060534</v>
-      </c>
-      <c r="I21">
-        <v>0.0001405189277369576</v>
-      </c>
-      <c r="J21">
-        <v>0.0001412403004359963</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.17279</v>
-      </c>
-      <c r="O21">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P21">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q21">
-        <v>0.00116218554</v>
-      </c>
-      <c r="R21">
-        <v>0.01045966986</v>
-      </c>
-      <c r="S21">
-        <v>7.049194572617607E-07</v>
-      </c>
-      <c r="T21">
-        <v>7.498457675603595E-07</v>
+        <v>1.627761243987291E-06</v>
       </c>
     </row>
   </sheetData>
